--- a/tests/data/test_case.xlsx
+++ b/tests/data/test_case.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmlim\OneDrive\Desktop\PlaywrightQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmlim\OneDrive\Desktop\PlaywrightQA\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E637E259-1605-45F2-9778-A2996088FF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374662D6-59E7-4E53-B5FC-8819AD494C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{8D6D2187-05EE-4484-831D-F9E229ECAAB8}"/>
   </bookViews>
@@ -39,10 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
-    <t>TC_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TC_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,10 +70,6 @@
     <t>TC_010</t>
   </si>
   <si>
-    <t>상품 목록(search_term)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>갤럭시S25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,6 +139,14 @@
   </si>
   <si>
     <t>expected_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search_term</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +570,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -582,98 +582,98 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +698,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -709,7 +709,7 @@
         <v>238</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -717,7 +717,7 @@
         <v>550</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -725,7 +725,7 @@
         <v>603</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -733,7 +733,7 @@
         <v>157336</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/test_case.xlsx
+++ b/tests/data/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmlim\OneDrive\Desktop\PlaywrightQA\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374662D6-59E7-4E53-B5FC-8819AD494C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF8738D-ACC2-4795-9CA0-5CEA97844169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{8D6D2187-05EE-4484-831D-F9E229ECAAB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>TC_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맥북프로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>헤드셋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이폰16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MOVIE_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,6 +139,10 @@
   </si>
   <si>
     <t>search_term</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사탕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +566,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -582,10 +578,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -609,7 +605,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -617,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -625,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -633,7 +629,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -641,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -649,7 +645,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -657,7 +653,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -665,15 +661,15 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +694,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -709,7 +705,7 @@
         <v>238</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -717,7 +713,7 @@
         <v>550</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -725,7 +721,7 @@
         <v>603</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -733,7 +729,7 @@
         <v>157336</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
